--- a/Resources/200110832-王义夫-数据通路表、控制信号取值表 .xlsx
+++ b/Resources/200110832-王义夫-数据通路表、控制信号取值表 .xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NanguoBean\Desktop\hitsz-cs-cpu\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hitsz-cs-cpu\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C0B5DC-217B-4623-B68F-D164291B1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DE7B3A-FCD7-4E5B-9FB0-11BB68D4A00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="862" yWindow="-98" windowWidth="19755" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="4185" windowWidth="20265" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
     <sheet name="控制信号取值表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
   <si>
     <t>所属单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,103 +391,156 @@
   </si>
   <si>
     <t>IROM.inst[31|19:12|20|30:21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IROM.inst[31:7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.rD1
+PC.pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF.rD2
+SEXT.ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf_we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wd_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sext_op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu_op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alua_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alub_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram_we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc+4</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>SRL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b‘01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b’11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEXT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEXT2.ext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ALU.C
 SEXT.ext
 DRAM.rd
+SEXT2.ext
 NPC.pc4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IROM.inst[31:7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD1
-PC.pc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RF.rD2
-SEXT.ext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rf_we</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wd_sel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sext_op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alu_op</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alua_sel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alub_sel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dram_we</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b'00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,7 +612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1134,71 +1186,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1207,18 +1290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,19 +1305,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
@@ -1318,16 +1389,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1336,9 +1407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,9 +1414,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1366,21 +1431,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,8 +1503,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1746,1697 +1838,1751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.05859375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.46875" customWidth="1"/>
-    <col min="2" max="2" width="13.9375" customWidth="1"/>
-    <col min="3" max="7" width="10.64453125" customWidth="1"/>
-    <col min="8" max="10" width="18.64453125" customWidth="1"/>
-    <col min="11" max="11" width="10.64453125" customWidth="1"/>
-    <col min="12" max="12" width="25.64453125" customWidth="1"/>
-    <col min="13" max="16" width="10.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="25.625" customWidth="1"/>
+    <col min="14" max="17" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.4" thickBot="1"/>
-    <row r="2" spans="1:16">
-      <c r="A2" s="34"/>
-      <c r="B2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91" t="s">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="91" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="91" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="90"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="34"/>
-      <c r="B3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="63" t="s">
+      <c r="Q2" s="82"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="31" t="s">
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="94" t="s">
+      <c r="N3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="90"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.4" thickBot="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="48" t="s">
+      <c r="Q3" s="82"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="P4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="82" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="66" t="s">
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="66" t="s">
+      <c r="L5" s="68"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="O5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="87"/>
-      <c r="B6" s="50" t="s">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="63" t="s">
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="63" t="s">
+      <c r="L6" s="89"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="O6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="21"/>
       <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="87"/>
-      <c r="B7" s="50" t="s">
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="63" t="s">
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="63" t="s">
+      <c r="L7" s="89"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="O7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="21"/>
       <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="87"/>
-      <c r="B8" s="50" t="s">
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="63" t="s">
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="63" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="O8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="21"/>
       <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="87"/>
-      <c r="B9" s="50" t="s">
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="63" t="s">
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="63" t="s">
+      <c r="L9" s="89"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="O9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="21"/>
       <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="87"/>
-      <c r="B10" s="50" t="s">
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="79"/>
+      <c r="B10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="63" t="s">
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="63" t="s">
+      <c r="L10" s="89"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="O10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="21"/>
       <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="87"/>
-      <c r="B11" s="50" t="s">
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="79"/>
+      <c r="B11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="63" t="s">
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="63" t="s">
+      <c r="L11" s="89"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="O11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O11" s="21"/>
       <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="87"/>
-      <c r="B12" s="50" t="s">
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
+      <c r="B12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="63" t="s">
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="63" t="s">
+      <c r="L12" s="89"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="O12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="21"/>
       <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="87"/>
-      <c r="B13" s="51" t="s">
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="63" t="s">
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="63" t="s">
+      <c r="L13" s="89"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="O13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="21"/>
       <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.4" thickBot="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="52" t="s">
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72"/>
+      <c r="B14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="67" t="s">
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="67" t="s">
+      <c r="L14" s="91"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="O14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="18"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="82" t="s">
+      <c r="P14" s="34"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="66" t="s">
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="68"/>
+      <c r="M15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M15" s="66" t="s">
+      <c r="N15" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="O15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="87"/>
-      <c r="B16" s="50" t="s">
+      <c r="P15" s="33"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="63" t="s">
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="89"/>
+      <c r="M16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="N16" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="O16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="21"/>
       <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="87"/>
-      <c r="B17" s="50" t="s">
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
+      <c r="B17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="63" t="s">
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="89"/>
+      <c r="M17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="63" t="s">
+      <c r="N17" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="O17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="21"/>
       <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="87"/>
-      <c r="B18" s="50" t="s">
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
+      <c r="B18" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="63" t="s">
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="89"/>
+      <c r="M18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="63" t="s">
+      <c r="N18" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="O18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="21"/>
       <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="87"/>
-      <c r="B19" s="50" t="s">
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="79"/>
+      <c r="B19" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="63" t="s">
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="63" t="s">
+      <c r="L19" s="89"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="O19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="21"/>
       <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="87"/>
-      <c r="B20" s="50" t="s">
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
+      <c r="B20" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="63" t="s">
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="63" t="s">
+      <c r="L20" s="89"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="O20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="21"/>
       <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="87"/>
-      <c r="B21" s="50" t="s">
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="63" t="s">
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="63" t="s">
+      <c r="L21" s="89"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="O21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O21" s="21"/>
       <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="87"/>
-      <c r="B22" s="51" t="s">
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="63" t="s">
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11" t="s">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="89"/>
+      <c r="M22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="63" t="s">
+      <c r="N22" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="O22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="21"/>
       <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="87"/>
-      <c r="B23" s="51" t="s">
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
+      <c r="B23" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="63" t="s">
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="89"/>
+      <c r="M23" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M23" s="63" t="s">
+      <c r="N23" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="O23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="21"/>
       <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="87"/>
-      <c r="B24" s="51" t="s">
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="79"/>
+      <c r="B24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="63" t="s">
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="M24" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M24" s="63" t="s">
+      <c r="N24" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="O24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="P24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="R24" s="22" t="s">
+      <c r="Q24" s="11"/>
+      <c r="S24" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="87"/>
-      <c r="B25" s="51" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="79"/>
+      <c r="B25" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="63" t="s">
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="1"/>
+      <c r="M25" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="63" t="s">
+      <c r="N25" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N25" s="31" t="s">
+      <c r="O25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="P25" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="R25" s="22"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="87"/>
-      <c r="B26" s="51" t="s">
+      <c r="Q25" s="11"/>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+      <c r="B26" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="63" t="s">
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="M26" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M26" s="63" t="s">
+      <c r="N26" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="31" t="s">
+      <c r="O26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="P26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="16"/>
-      <c r="R26" s="22"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="87"/>
-      <c r="B27" s="51" t="s">
+      <c r="Q26" s="11"/>
+      <c r="S26" s="17"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="79"/>
+      <c r="B27" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="63" t="s">
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="1"/>
+      <c r="M27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M27" s="63" t="s">
+      <c r="N27" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N27" s="31" t="s">
+      <c r="O27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="P27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="R27" s="22"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="87"/>
-      <c r="B28" s="50" t="s">
+      <c r="Q27" s="11"/>
+      <c r="S27" s="17"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
+      <c r="B28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="63" t="s">
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="M28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="63" t="s">
+      <c r="N28" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N28" s="31" t="s">
+      <c r="O28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="P28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="R28" s="22"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.4" thickBot="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="53" t="s">
+      <c r="Q28" s="11"/>
+      <c r="S28" s="17"/>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="72"/>
+      <c r="B29" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="67" t="s">
+      <c r="G29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17" t="s">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="91"/>
+      <c r="M29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="67"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="18"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="82" t="s">
+      <c r="N29" s="57"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="66" t="s">
+      <c r="D30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="71" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="M30" s="66" t="s">
+      <c r="N30" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="30" t="s">
+      <c r="O30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O30" s="42" t="s">
+      <c r="P30" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="Q30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="R30" s="23"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="87"/>
-      <c r="B31" s="51" t="s">
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="63" t="s">
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="72" t="s">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="63" t="s">
+      <c r="N31" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="O31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="P31" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="Q31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="R31" s="23"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.4" thickBot="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="55" t="s">
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="72"/>
+      <c r="B32" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="67" t="s">
+      <c r="D32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="73" t="s">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="M32" s="67" t="s">
+      <c r="N32" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="O32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O32" s="43" t="s">
+      <c r="P32" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="Q32" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="82" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="66" t="s">
+      <c r="D33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="30" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="M33" s="66" t="s">
+      <c r="N33" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="O33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O33" s="42"/>
-      <c r="P33" s="15"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="87"/>
-      <c r="B34" s="50" t="s">
+      <c r="P33" s="33"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="79"/>
+      <c r="B34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="63" t="s">
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="31" t="s">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="63" t="s">
+      <c r="N34" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N34" s="31" t="s">
+      <c r="O34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O34" s="21"/>
       <c r="P34" s="16"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="87"/>
-      <c r="B35" s="50" t="s">
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="79"/>
+      <c r="B35" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="63" t="s">
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="31" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M35" s="63" t="s">
+      <c r="N35" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N35" s="31" t="s">
+      <c r="O35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O35" s="21"/>
       <c r="P35" s="16"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="87"/>
-      <c r="B36" s="51" t="s">
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="63" t="s">
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="31" t="s">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M36" s="63" t="s">
+      <c r="N36" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N36" s="31" t="s">
+      <c r="O36" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O36" s="21"/>
       <c r="P36" s="16"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="87"/>
-      <c r="B37" s="50" t="s">
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="79"/>
+      <c r="B37" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="63" t="s">
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="31" t="s">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M37" s="63" t="s">
+      <c r="N37" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="N37" s="31" t="s">
+      <c r="O37" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O37" s="21"/>
       <c r="P37" s="16"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.4" thickBot="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="56" t="s">
+      <c r="Q37" s="11"/>
+    </row>
+    <row r="38" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="80"/>
+      <c r="B38" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="64" t="s">
+      <c r="D38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="65" t="s">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="64" t="s">
+      <c r="N38" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="N38" s="65" t="s">
+      <c r="O38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="O38" s="41"/>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="82" t="s">
+      <c r="P38" s="32"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="66"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14" t="s">
+      <c r="D39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="56"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="30" t="s">
+      <c r="L39" s="68"/>
+      <c r="M39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M39" s="66"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="15"/>
-    </row>
-    <row r="40" spans="1:16" ht="15.4" thickBot="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="52" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="72"/>
+      <c r="B40" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17" t="s">
+      <c r="D40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="57"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="91"/>
+      <c r="M40" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="M40" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="43"/>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.4" thickBot="1">
-      <c r="A41" s="36" t="s">
+      <c r="P40" s="34"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="28" t="s">
+      <c r="D41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28" t="s">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="58"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="28" t="s">
+      <c r="K41" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="69" t="s">
+      <c r="L41" s="92"/>
+      <c r="M41" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M41" s="68"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="29"/>
-    </row>
-    <row r="42" spans="1:16" ht="61.9" customHeight="1" thickBot="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="58" t="s">
+      <c r="N41" s="58"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" spans="1:17" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="70" t="s">
+      <c r="G42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="L42" s="93"/>
+      <c r="M42" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="L42" s="74" t="s">
+      <c r="N42" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="M42" s="76" t="s">
+      <c r="O42" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N42" s="74" t="s">
+      <c r="P42" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q42" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="O42" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="38"/>
-      <c r="B43" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="84" t="s">
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="79" t="s">
+      <c r="K43" s="78"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="O43" s="75"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="J43" s="84" t="s">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="86"/>
-      <c r="L43" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="M43" s="82" t="s">
+      <c r="L44" s="89"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="N43" s="83"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="39"/>
-      <c r="B44" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="63" t="s">
+      <c r="O44" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="N44" s="31" t="s">
+      <c r="P44" s="54"/>
+      <c r="Q44" s="11"/>
+    </row>
+    <row r="45" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="O44" s="63"/>
-      <c r="P44" s="31"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.4" thickBot="1">
-      <c r="A45" s="40"/>
-      <c r="B45" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="N45" s="81"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="33"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="O45" s="73"/>
+      <c r="P45" s="53"/>
+      <c r="Q45" s="24"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="G48" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="A5:A14"/>
@@ -3452,684 +3598,1263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:L40"/>
+  <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.05859375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="7.17578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.29296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.46875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.46875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="96" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.4" thickBot="1">
-      <c r="B3" s="96"/>
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="88"/>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.4" thickBot="1">
-      <c r="B13" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" ht="15.4" thickBot="1">
-      <c r="B28" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.4" thickBot="1">
-      <c r="B31" s="55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="15.4" thickBot="1">
-      <c r="B37" s="56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="15.4" thickBot="1">
-      <c r="B39" s="52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="15.4" thickBot="1">
-      <c r="B40" s="57" t="s">
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="48" t="s">
         <v>69</v>
       </c>
+      <c r="C40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C2:K2"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Resources/200110832-王义夫-数据通路表、控制信号取值表 .xlsx
+++ b/Resources/200110832-王义夫-数据通路表、控制信号取值表 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hitsz-cs-cpu\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DE7B3A-FCD7-4E5B-9FB0-11BB68D4A00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134F0329-3810-488A-9A1C-7271EC900DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="4185" windowWidth="20265" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="128">
   <si>
     <t>所属单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pc+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,9 +478,6 @@
   <si>
     <t>SLL</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc+4</t>
   </si>
   <si>
     <t>X</t>
@@ -542,6 +535,9 @@
 SEXT2.ext
 NPC.pc4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b'00</t>
   </si>
 </sst>
 </file>
@@ -1455,57 +1451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1523,6 +1468,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1840,9 +1836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L49" sqref="L49"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1862,29 +1858,29 @@
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="83" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="83" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="81" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="82"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
@@ -1894,34 +1890,34 @@
       <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="89" t="s">
-        <v>126</v>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="72" t="s">
+        <v>124</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="82"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
@@ -1955,7 +1951,7 @@
       <c r="K4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="90" t="s">
+      <c r="L4" s="73" t="s">
         <v>19</v>
       </c>
       <c r="M4" s="14" t="s">
@@ -1975,7 +1971,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="88" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -2016,7 +2012,7 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="41" t="s">
         <v>31</v>
       </c>
@@ -2043,7 +2039,7 @@
       <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="89"/>
+      <c r="L6" s="72"/>
       <c r="M6" s="11"/>
       <c r="N6" s="54" t="s">
         <v>70</v>
@@ -2055,7 +2051,7 @@
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="41" t="s">
         <v>32</v>
       </c>
@@ -2082,7 +2078,7 @@
       <c r="K7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="89"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="11"/>
       <c r="N7" s="54" t="s">
         <v>70</v>
@@ -2094,7 +2090,7 @@
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="41" t="s">
         <v>33</v>
       </c>
@@ -2121,7 +2117,7 @@
       <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="89"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="11"/>
       <c r="N8" s="54" t="s">
         <v>70</v>
@@ -2133,7 +2129,7 @@
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="41" t="s">
         <v>34</v>
       </c>
@@ -2160,7 +2156,7 @@
       <c r="K9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="89"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="11"/>
       <c r="N9" s="54" t="s">
         <v>70</v>
@@ -2172,7 +2168,7 @@
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="41" t="s">
         <v>35</v>
       </c>
@@ -2199,7 +2195,7 @@
       <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="89"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="11"/>
       <c r="N10" s="54" t="s">
         <v>70</v>
@@ -2211,7 +2207,7 @@
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="41" t="s">
         <v>36</v>
       </c>
@@ -2238,7 +2234,7 @@
       <c r="K11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="89"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="11"/>
       <c r="N11" s="54" t="s">
         <v>70</v>
@@ -2250,7 +2246,7 @@
       <c r="Q11" s="11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="41" t="s">
         <v>37</v>
       </c>
@@ -2277,7 +2273,7 @@
       <c r="K12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="89"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="11"/>
       <c r="N12" s="54" t="s">
         <v>70</v>
@@ -2289,7 +2285,7 @@
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="42" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +2312,7 @@
       <c r="K13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="89"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="11"/>
       <c r="N13" s="54" t="s">
         <v>70</v>
@@ -2328,7 +2324,7 @@
       <c r="Q13" s="11"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="43" t="s">
         <v>39</v>
       </c>
@@ -2355,7 +2351,7 @@
       <c r="K14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="91"/>
+      <c r="L14" s="74"/>
       <c r="M14" s="13"/>
       <c r="N14" s="57" t="s">
         <v>70</v>
@@ -2367,7 +2363,7 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="88" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="40" t="s">
@@ -2408,7 +2404,7 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="41" t="s">
         <v>44</v>
       </c>
@@ -2433,7 +2429,7 @@
       <c r="K16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="89"/>
+      <c r="L16" s="72"/>
       <c r="M16" s="11" t="s">
         <v>82</v>
       </c>
@@ -2447,7 +2443,7 @@
       <c r="Q16" s="11"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="41" t="s">
         <v>45</v>
       </c>
@@ -2472,7 +2468,7 @@
       <c r="K17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="89"/>
+      <c r="L17" s="72"/>
       <c r="M17" s="11" t="s">
         <v>82</v>
       </c>
@@ -2486,7 +2482,7 @@
       <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="41" t="s">
         <v>46</v>
       </c>
@@ -2511,7 +2507,7 @@
       <c r="K18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L18" s="89"/>
+      <c r="L18" s="72"/>
       <c r="M18" s="11" t="s">
         <v>82</v>
       </c>
@@ -2525,7 +2521,7 @@
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="41" t="s">
         <v>47</v>
       </c>
@@ -2552,7 +2548,7 @@
       <c r="K19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="89"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="11"/>
       <c r="N19" s="54" t="s">
         <v>70</v>
@@ -2564,7 +2560,7 @@
       <c r="Q19" s="11"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="41" t="s">
         <v>48</v>
       </c>
@@ -2591,7 +2587,7 @@
       <c r="K20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L20" s="89"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="11"/>
       <c r="N20" s="54" t="s">
         <v>70</v>
@@ -2603,7 +2599,7 @@
       <c r="Q20" s="11"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="41" t="s">
         <v>49</v>
       </c>
@@ -2630,7 +2626,7 @@
       <c r="K21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="89"/>
+      <c r="L21" s="72"/>
       <c r="M21" s="11"/>
       <c r="N21" s="54" t="s">
         <v>70</v>
@@ -2642,7 +2638,7 @@
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="42" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2663,7 @@
       <c r="K22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L22" s="89"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="11" t="s">
         <v>82</v>
       </c>
@@ -2681,7 +2677,7 @@
       <c r="Q22" s="11"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="42" t="s">
         <v>51</v>
       </c>
@@ -2706,7 +2702,7 @@
       <c r="K23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="89"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="11" t="s">
         <v>82</v>
       </c>
@@ -2720,7 +2716,7 @@
       <c r="Q23" s="11"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="42" t="s">
         <v>52</v>
       </c>
@@ -2743,7 +2739,7 @@
         <v>73</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>83</v>
@@ -2766,7 +2762,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="42" t="s">
         <v>53</v>
       </c>
@@ -2808,7 +2804,7 @@
       <c r="S25" s="17"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="42" t="s">
         <v>54</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>73</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>83</v>
@@ -2852,7 +2848,7 @@
       <c r="S26" s="17"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="42" t="s">
         <v>55</v>
       </c>
@@ -2894,7 +2890,7 @@
       <c r="S27" s="17"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="41" t="s">
         <v>56</v>
       </c>
@@ -2917,7 +2913,7 @@
         <v>73</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>83</v>
@@ -2938,7 +2934,7 @@
       <c r="S28" s="17"/>
     </row>
     <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="44" t="s">
         <v>57</v>
       </c>
@@ -2965,7 +2961,7 @@
       <c r="K29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L29" s="91"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="13" t="s">
         <v>91</v>
       </c>
@@ -2975,7 +2971,7 @@
       <c r="Q29" s="13"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="88" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -3019,7 +3015,7 @@
       <c r="S30" s="18"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="42" t="s">
         <v>59</v>
       </c>
@@ -3042,7 +3038,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="89"/>
+      <c r="L31" s="72"/>
       <c r="M31" s="61" t="s">
         <v>86</v>
       </c>
@@ -3061,7 +3057,7 @@
       <c r="S31" s="18"/>
     </row>
     <row r="32" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="46" t="s">
         <v>60</v>
       </c>
@@ -3084,7 +3080,7 @@
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="91"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="62" t="s">
         <v>86</v>
       </c>
@@ -3102,7 +3098,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="88" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -3141,7 +3137,7 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="41" t="s">
         <v>62</v>
       </c>
@@ -3164,7 +3160,7 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="89"/>
+      <c r="L34" s="72"/>
       <c r="M34" s="11" t="s">
         <v>85</v>
       </c>
@@ -3178,7 +3174,7 @@
       <c r="Q34" s="11"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="41" t="s">
         <v>63</v>
       </c>
@@ -3201,7 +3197,7 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="89"/>
+      <c r="L35" s="72"/>
       <c r="M35" s="11" t="s">
         <v>85</v>
       </c>
@@ -3215,7 +3211,7 @@
       <c r="Q35" s="11"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="42" t="s">
         <v>64</v>
       </c>
@@ -3238,7 +3234,7 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="89"/>
+      <c r="L36" s="72"/>
       <c r="M36" s="11" t="s">
         <v>85</v>
       </c>
@@ -3252,7 +3248,7 @@
       <c r="Q36" s="11"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="41" t="s">
         <v>65</v>
       </c>
@@ -3275,7 +3271,7 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="89"/>
+      <c r="L37" s="72"/>
       <c r="M37" s="11" t="s">
         <v>85</v>
       </c>
@@ -3289,7 +3285,7 @@
       <c r="Q37" s="11"/>
     </row>
     <row r="38" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="80"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="47" t="s">
         <v>66</v>
       </c>
@@ -3312,7 +3308,7 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="90"/>
+      <c r="L38" s="73"/>
       <c r="M38" s="14" t="s">
         <v>85</v>
       </c>
@@ -3326,7 +3322,7 @@
       <c r="Q38" s="14"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="88" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="40" t="s">
@@ -3361,7 +3357,7 @@
       <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="72"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="43" t="s">
         <v>68</v>
       </c>
@@ -3384,7 +3380,7 @@
       <c r="K40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="91"/>
+      <c r="L40" s="74"/>
       <c r="M40" s="13" t="s">
         <v>87</v>
       </c>
@@ -3425,7 +3421,7 @@
       <c r="K41" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="92"/>
+      <c r="L41" s="75"/>
       <c r="M41" s="22" t="s">
         <v>91</v>
       </c>
@@ -3464,9 +3460,9 @@
         <v>73</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="L42" s="93"/>
+        <v>126</v>
+      </c>
+      <c r="L42" s="76"/>
       <c r="M42" s="63" t="s">
         <v>92</v>
       </c>
@@ -3489,28 +3485,28 @@
         <v>25</v>
       </c>
       <c r="C43" s="56"/>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="91"/>
       <c r="G43" s="10"/>
       <c r="H43" s="29"/>
       <c r="I43" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="J43" s="76" t="s">
+      <c r="J43" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="K43" s="78"/>
+      <c r="K43" s="91"/>
       <c r="L43" s="69"/>
       <c r="M43" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="N43" s="74" t="s">
+      <c r="N43" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="O43" s="75"/>
+      <c r="O43" s="89"/>
       <c r="P43" s="29"/>
       <c r="Q43" s="66" t="s">
         <v>104</v>
@@ -3532,7 +3528,7 @@
       <c r="K44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L44" s="89"/>
+      <c r="L44" s="72"/>
       <c r="M44" s="11"/>
       <c r="N44" s="54" t="s">
         <v>100</v>
@@ -3557,12 +3553,12 @@
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
-      <c r="L45" s="94"/>
+      <c r="L45" s="77"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="72" t="s">
+      <c r="N45" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="O45" s="73"/>
+      <c r="O45" s="87"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="24"/>
     </row>
@@ -3573,14 +3569,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:O3"/>
     <mergeCell ref="N45:O45"/>
     <mergeCell ref="N43:O43"/>
     <mergeCell ref="D43:F43"/>
@@ -3590,6 +3578,14 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="A39:A40"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3600,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3620,23 +3616,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="88"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="3" t="s">
         <v>95</v>
       </c>
@@ -3670,19 +3666,19 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -3702,19 +3698,19 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -3734,19 +3730,19 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -3766,19 +3762,19 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -3798,19 +3794,19 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -3830,19 +3826,19 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -3862,19 +3858,19 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -3894,19 +3890,19 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -3926,19 +3922,19 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -3958,19 +3954,19 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -3990,19 +3986,19 @@
         <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -4022,19 +4018,19 @@
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
@@ -4054,19 +4050,19 @@
         <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -4086,19 +4082,19 @@
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -4118,19 +4114,19 @@
         <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -4150,19 +4146,19 @@
         <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -4182,19 +4178,19 @@
         <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
@@ -4214,19 +4210,19 @@
         <v>50</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
@@ -4246,19 +4242,19 @@
         <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -4278,19 +4274,19 @@
         <v>52</v>
       </c>
       <c r="C23" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -4310,19 +4306,19 @@
         <v>53</v>
       </c>
       <c r="C24" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -4342,19 +4338,19 @@
         <v>54</v>
       </c>
       <c r="C25" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -4374,19 +4370,19 @@
         <v>55</v>
       </c>
       <c r="C26" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -4406,19 +4402,19 @@
         <v>56</v>
       </c>
       <c r="C27" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -4438,19 +4434,19 @@
         <v>57</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -4470,19 +4466,19 @@
         <v>58</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -4502,19 +4498,19 @@
         <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -4534,19 +4530,19 @@
         <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -4566,19 +4562,19 @@
         <v>61</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -4598,19 +4594,19 @@
         <v>62</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -4630,19 +4626,19 @@
         <v>63</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -4662,19 +4658,19 @@
         <v>64</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -4694,19 +4690,19 @@
         <v>65</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -4726,19 +4722,19 @@
         <v>66</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -4758,19 +4754,19 @@
         <v>67</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -4790,19 +4786,19 @@
         <v>68</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -4822,25 +4818,25 @@
         <v>69</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
